--- a/docs/comparison-matrix.xlsx
+++ b/docs/comparison-matrix.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Red Datatype Comparison Matrix</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>word!</t>
+  </si>
+  <si>
+    <t>1.NaN</t>
+  </si>
+  <si>
+    <t>±1.INF</t>
   </si>
   <si>
     <t>equal?</t>
@@ -238,6 +244,36 @@
 c: 1  true = same? a b  false = same? a c</t>
+  </si>
+  <si>
+    <t>False if the float has digits to the right of the decimal place. Otherwise, the float is converted to a bigint!.</t>
+  </si>
+  <si>
+    <t>the float is converted to bignum!</t>
+  </si>
+  <si>
+    <t>the decimal! is converted to float!</t>
+  </si>
+  <si>
+    <t>The float32! is converted to float!.</t>
+  </si>
+  <si>
+    <t>The integer! is converted to float!</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>False if the float32 has digits to the right of the decimal place. Otherwise, the float32 is converted to a bigint!.</t>
+  </si>
+  <si>
+    <t>the float32 is converted to bignum!</t>
+  </si>
+  <si>
+    <t>the decimal! and the float32! are converted to float!</t>
+  </si>
+  <si>
+    <t>Both the integer! and the float32! are converted to float!</t>
   </si>
 </sst>
 </file>
@@ -410,7 +446,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -464,6 +500,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1589,7 +1628,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:DU23"/>
+  <dimension ref="A2:DY23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1722,7 +1761,11 @@
     <col min="123" max="123" width="16.3516" style="1" customWidth="1"/>
     <col min="124" max="124" width="16.3516" style="1" customWidth="1"/>
     <col min="125" max="125" width="16.3516" style="1" customWidth="1"/>
-    <col min="126" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="126" max="126" width="16.3516" style="1" customWidth="1"/>
+    <col min="127" max="127" width="16.3516" style="1" customWidth="1"/>
+    <col min="128" max="128" width="16.3516" style="1" customWidth="1"/>
+    <col min="129" max="129" width="16.3516" style="1" customWidth="1"/>
+    <col min="130" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1853,6 +1896,10 @@
       <c r="DS1" s="2"/>
       <c r="DT1" s="2"/>
       <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" s="3"/>
@@ -2104,1132 +2151,1176 @@
         <v>57</v>
       </c>
       <c r="DU2" s="5"/>
+      <c r="DV2" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="DW2" s="5"/>
+      <c r="DX2" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="DY2" s="5"/>
     </row>
     <row r="3" ht="44.55" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>24</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="s" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AO3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AP3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AS3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AT3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AV3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="s" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AX3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AY3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AZ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BA3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BB3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BC3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BD3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BE3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BF3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BG3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BH3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BI3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BJ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BK3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BL3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BM3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BN3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BO3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BP3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BQ3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BR3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BS3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BT3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BU3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BV3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BW3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BX3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BY3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BZ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CA3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CB3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CC3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CD3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CE3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CF3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CG3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CH3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CI3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CJ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CK3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CL3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CM3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CN3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CO3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CP3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CQ3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CR3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CS3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CT3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CU3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CV3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CW3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CX3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CY3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CZ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DA3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DB3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DC3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DD3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DE3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DF3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DG3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DH3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DI3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DJ3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DK3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DL3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DM3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DN3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DO3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DP3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DQ3" t="s" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="DR3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DS3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DT3" t="s" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DU3" t="s" s="9">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="DV3" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="DW3" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="DX3" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="DY3" t="s" s="9">
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="32.35" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" t="s" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="T4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="Z4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AD4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AF4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AH4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AJ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AL4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AN4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AP4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AR4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AT4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AV4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AW4" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="AX4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AY4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AZ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BB4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BC4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BD4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BE4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BF4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BG4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BH4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BI4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BJ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BK4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BL4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BM4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BN4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BO4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BP4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BQ4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BR4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BS4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BT4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BU4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BV4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BW4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BX4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BY4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BZ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CA4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CB4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CC4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CD4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CE4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CF4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CG4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CH4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CI4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CJ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CK4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CL4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CM4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CN4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CO4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CP4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CQ4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CR4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CS4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CT4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CU4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CV4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CW4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CX4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CY4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CZ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DA4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DB4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DC4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DD4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DE4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DF4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DG4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DH4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DI4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DJ4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DK4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DL4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DM4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DN4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DO4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DP4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DQ4" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="J4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="M4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="R4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="S4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="U4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="V4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="W4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="X4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="Y4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="Z4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AA4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AB4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AC4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AD4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AE4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AF4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AG4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AH4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AI4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AJ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AK4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AL4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AM4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AN4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AO4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AP4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AQ4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AR4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AS4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AT4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AU4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AV4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AW4" t="s" s="12">
-        <v>70</v>
-      </c>
-      <c r="AX4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="AY4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="AZ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BA4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BB4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BC4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BD4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BE4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BF4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BG4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BH4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BI4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BJ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BK4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BL4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BM4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BN4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BO4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BP4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BQ4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BR4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BS4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BT4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BU4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BV4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BW4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BX4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="BY4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="BZ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CA4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CB4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CC4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CD4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CE4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CF4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CG4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CH4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CI4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CJ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CK4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CL4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CM4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CN4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CO4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CP4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CQ4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CR4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CS4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CT4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CU4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CV4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CW4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CX4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="CY4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="CZ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DA4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DB4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DC4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DD4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DE4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DF4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DG4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DH4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DI4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DJ4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DK4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DL4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DM4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DN4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DO4" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="DP4" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="DQ4" t="s" s="12">
-        <v>67</v>
-      </c>
       <c r="DR4" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="DS4" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DT4" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="DU4" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="DV4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DW4" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DX4" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DY4" t="s" s="12">
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" t="s" s="13">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AL5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AN5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AO5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AP5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AQ5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AS5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AT5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AV5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AW5" t="s" s="14">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AX5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AY5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AZ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BA5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BB5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BC5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BD5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BE5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BF5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BG5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BH5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BI5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BJ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BK5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BL5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BM5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BN5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BO5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BP5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BR5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BS5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BT5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BU5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BV5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BW5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BX5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BY5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BZ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CA5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CB5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CC5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CD5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CE5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CF5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CG5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CH5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CI5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CJ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CK5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CL5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CM5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CN5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CO5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CP5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CQ5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CR5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CS5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CT5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CU5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CV5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CW5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CX5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CY5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CZ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DA5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DB5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DC5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DD5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DE5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DF5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DG5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DH5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DI5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DJ5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DK5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DL5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DM5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DN5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DO5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DP5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DQ5" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="DR5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DS5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="DT5" t="s" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DU5" t="s" s="14">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="DV5" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DW5" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DX5" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DY5" t="s" s="14">
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="68.35" customHeight="1">
@@ -3281,7 +3372,7 @@
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
       <c r="AV6" t="s" s="12">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
@@ -3359,388 +3450,1174 @@
       <c r="DR6" s="16"/>
       <c r="DS6" s="16"/>
       <c r="DT6" s="16"/>
-      <c r="DU6" s="17"/>
+      <c r="DU6" s="16"/>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="16"/>
+      <c r="DX6" s="16"/>
+      <c r="DY6" s="17"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
-      <c r="BN7" s="19"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
-      <c r="BQ7" s="19"/>
-      <c r="BR7" s="19"/>
-      <c r="BS7" s="19"/>
-      <c r="BT7" s="19"/>
-      <c r="BU7" s="19"/>
-      <c r="BV7" s="19"/>
-      <c r="BW7" s="19"/>
-      <c r="BX7" s="19"/>
-      <c r="BY7" s="19"/>
-      <c r="BZ7" s="19"/>
-      <c r="CA7" s="19"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="19"/>
-      <c r="CF7" s="19"/>
-      <c r="CG7" s="19"/>
-      <c r="CH7" s="19"/>
-      <c r="CI7" s="19"/>
-      <c r="CJ7" s="19"/>
-      <c r="CK7" s="19"/>
-      <c r="CL7" s="19"/>
-      <c r="CM7" s="19"/>
-      <c r="CN7" s="19"/>
-      <c r="CO7" s="19"/>
-      <c r="CP7" s="19"/>
-      <c r="CQ7" s="19"/>
-      <c r="CR7" s="19"/>
-      <c r="CS7" s="19"/>
-      <c r="CT7" s="19"/>
-      <c r="CU7" s="19"/>
-      <c r="CV7" s="19"/>
-      <c r="CW7" s="19"/>
-      <c r="CX7" s="19"/>
-      <c r="CY7" s="19"/>
-      <c r="CZ7" s="19"/>
-      <c r="DA7" s="19"/>
-      <c r="DB7" s="19"/>
-      <c r="DC7" s="19"/>
-      <c r="DD7" s="19"/>
-      <c r="DE7" s="19"/>
-      <c r="DF7" s="19"/>
-      <c r="DG7" s="19"/>
-      <c r="DH7" s="19"/>
-      <c r="DI7" s="19"/>
-      <c r="DJ7" s="19"/>
-      <c r="DK7" s="19"/>
-      <c r="DL7" s="19"/>
-      <c r="DM7" s="19"/>
-      <c r="DN7" s="19"/>
-      <c r="DO7" s="19"/>
-      <c r="DP7" s="19"/>
-      <c r="DQ7" s="19"/>
-      <c r="DR7" s="19"/>
-      <c r="DS7" s="19"/>
-      <c r="DT7" s="19"/>
-      <c r="DU7" s="19"/>
+    <row r="7" ht="80.35" customHeight="1">
+      <c r="A7" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s" s="14">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="R7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="U7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="V7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="X7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="Z7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AA7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="AD7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AF7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AH7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AI7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="AL7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="AN7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AO7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AP7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AQ7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AR7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AS7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AT7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AU7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AV7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="AX7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AY7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AZ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BA7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BB7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BC7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BD7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BE7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BF7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BG7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BH7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BI7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BJ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BK7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BL7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BM7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BN7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BO7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BP7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BQ7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BR7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BS7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BT7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BU7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BV7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BW7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BX7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BY7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BZ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CA7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CB7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CC7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CD7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CE7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CF7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CG7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CH7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CI7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CJ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CK7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CL7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CM7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CN7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CO7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CP7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CQ7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CR7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CS7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CT7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CU7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CV7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CW7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CX7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CY7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CZ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DA7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DB7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DC7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DD7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DE7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DF7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DG7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DH7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DI7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DJ7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DK7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DL7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DM7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DN7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DO7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DP7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DQ7" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="DR7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DS7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DT7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DU7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DV7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DW7" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DX7" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DY7" t="s" s="14">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
+    <row r="8" ht="32.35" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="16"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="16"/>
-      <c r="AX8" s="16"/>
-      <c r="AY8" s="16"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="16"/>
-      <c r="BB8" s="16"/>
-      <c r="BC8" s="16"/>
-      <c r="BD8" s="16"/>
-      <c r="BE8" s="16"/>
-      <c r="BF8" s="16"/>
-      <c r="BG8" s="16"/>
-      <c r="BH8" s="16"/>
-      <c r="BI8" s="16"/>
-      <c r="BJ8" s="16"/>
-      <c r="BK8" s="16"/>
-      <c r="BL8" s="16"/>
-      <c r="BM8" s="16"/>
-      <c r="BN8" s="16"/>
-      <c r="BO8" s="16"/>
-      <c r="BP8" s="16"/>
-      <c r="BQ8" s="16"/>
-      <c r="BR8" s="16"/>
-      <c r="BS8" s="16"/>
-      <c r="BT8" s="16"/>
-      <c r="BU8" s="16"/>
-      <c r="BV8" s="16"/>
-      <c r="BW8" s="16"/>
-      <c r="BX8" s="16"/>
-      <c r="BY8" s="16"/>
-      <c r="BZ8" s="16"/>
-      <c r="CA8" s="16"/>
-      <c r="CB8" s="16"/>
-      <c r="CC8" s="16"/>
-      <c r="CD8" s="16"/>
-      <c r="CE8" s="16"/>
-      <c r="CF8" s="16"/>
-      <c r="CG8" s="16"/>
-      <c r="CH8" s="16"/>
-      <c r="CI8" s="16"/>
-      <c r="CJ8" s="16"/>
-      <c r="CK8" s="16"/>
-      <c r="CL8" s="16"/>
-      <c r="CM8" s="16"/>
-      <c r="CN8" s="16"/>
-      <c r="CO8" s="16"/>
-      <c r="CP8" s="16"/>
-      <c r="CQ8" s="16"/>
-      <c r="CR8" s="16"/>
-      <c r="CS8" s="16"/>
-      <c r="CT8" s="16"/>
-      <c r="CU8" s="16"/>
-      <c r="CV8" s="16"/>
-      <c r="CW8" s="16"/>
-      <c r="CX8" s="16"/>
-      <c r="CY8" s="16"/>
-      <c r="CZ8" s="16"/>
-      <c r="DA8" s="16"/>
-      <c r="DB8" s="16"/>
-      <c r="DC8" s="16"/>
-      <c r="DD8" s="16"/>
-      <c r="DE8" s="16"/>
-      <c r="DF8" s="16"/>
-      <c r="DG8" s="16"/>
-      <c r="DH8" s="16"/>
-      <c r="DI8" s="16"/>
-      <c r="DJ8" s="16"/>
-      <c r="DK8" s="16"/>
-      <c r="DL8" s="16"/>
-      <c r="DM8" s="16"/>
-      <c r="DN8" s="16"/>
-      <c r="DO8" s="16"/>
-      <c r="DP8" s="16"/>
-      <c r="DQ8" s="16"/>
-      <c r="DR8" s="16"/>
-      <c r="DS8" s="16"/>
-      <c r="DT8" s="16"/>
-      <c r="DU8" s="17"/>
+      <c r="B8" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="R8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="S8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="T8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="V8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="W8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="X8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="Z8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AB8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AC8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AD8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AF8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AG8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AH8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AI8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AJ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="AL8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AN8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AO8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AP8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AQ8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AR8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AT8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AU8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AV8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AW8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AX8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AY8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AZ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BB8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BC8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BD8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BE8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BF8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BG8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BH8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BI8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BJ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BK8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BL8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BM8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BN8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BO8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BP8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BQ8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BR8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BS8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BT8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BU8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BV8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BW8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BX8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BY8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BZ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CA8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CB8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CC8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CD8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CE8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CF8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CG8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CH8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CI8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CJ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CK8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CL8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CM8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CN8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CO8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CP8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CQ8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CR8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CS8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CT8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CU8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CV8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CW8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CX8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CY8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CZ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DA8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DB8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DC8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DD8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DE8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DF8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DG8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DH8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DI8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DJ8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DK8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DL8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DM8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DN8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DO8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DP8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DQ8" t="s" s="12">
+        <v>69</v>
+      </c>
+      <c r="DR8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DS8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DT8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DU8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DV8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DW8" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DX8" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DY8" t="s" s="12">
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
+    <row r="9" ht="32.35" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19"/>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19"/>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19"/>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19"/>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19"/>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="19"/>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="19"/>
-      <c r="CT9" s="19"/>
-      <c r="CU9" s="19"/>
-      <c r="CV9" s="19"/>
-      <c r="CW9" s="19"/>
-      <c r="CX9" s="19"/>
-      <c r="CY9" s="19"/>
-      <c r="CZ9" s="19"/>
-      <c r="DA9" s="19"/>
-      <c r="DB9" s="19"/>
-      <c r="DC9" s="19"/>
-      <c r="DD9" s="19"/>
-      <c r="DE9" s="19"/>
-      <c r="DF9" s="19"/>
-      <c r="DG9" s="19"/>
-      <c r="DH9" s="19"/>
-      <c r="DI9" s="19"/>
-      <c r="DJ9" s="19"/>
-      <c r="DK9" s="19"/>
-      <c r="DL9" s="19"/>
-      <c r="DM9" s="19"/>
-      <c r="DN9" s="19"/>
-      <c r="DO9" s="19"/>
-      <c r="DP9" s="19"/>
-      <c r="DQ9" s="19"/>
-      <c r="DR9" s="19"/>
-      <c r="DS9" s="19"/>
-      <c r="DT9" s="19"/>
-      <c r="DU9" s="19"/>
+      <c r="B9" t="s" s="13">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="T9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="V9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="X9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="Z9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AD9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AF9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AG9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AH9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AJ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AK9" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AM9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AN9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AO9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AP9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AQ9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AR9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AS9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AT9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AU9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AV9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AW9" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="AX9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AY9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AZ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BA9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BB9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BC9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BD9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BE9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BF9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BG9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BH9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BI9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BJ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BK9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BL9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BM9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BN9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BO9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BP9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BQ9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BR9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BS9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BT9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BU9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BV9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BW9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BX9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BY9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BZ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CA9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CB9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CC9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CD9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CE9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CF9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CG9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CH9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CI9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CJ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CK9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CL9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CM9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CN9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CO9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CP9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CQ9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CR9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CS9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CT9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CU9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CV9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CW9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CX9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CY9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CZ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DA9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DB9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DC9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DD9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DE9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DF9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DG9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DH9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DI9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DJ9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DK9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DL9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DM9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DN9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DO9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DP9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DQ9" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="DR9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DS9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DT9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DU9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DV9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DW9" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DX9" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DY9" t="s" s="14">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" s="10"/>
@@ -3790,7 +4667,7 @@
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
+      <c r="AV10" s="12"/>
       <c r="AW10" s="16"/>
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
@@ -3867,388 +4744,1174 @@
       <c r="DR10" s="16"/>
       <c r="DS10" s="16"/>
       <c r="DT10" s="16"/>
-      <c r="DU10" s="17"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="16"/>
+      <c r="DW10" s="16"/>
+      <c r="DX10" s="16"/>
+      <c r="DY10" s="17"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="19"/>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="19"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="19"/>
-      <c r="BL11" s="19"/>
-      <c r="BM11" s="19"/>
-      <c r="BN11" s="19"/>
-      <c r="BO11" s="19"/>
-      <c r="BP11" s="19"/>
-      <c r="BQ11" s="19"/>
-      <c r="BR11" s="19"/>
-      <c r="BS11" s="19"/>
-      <c r="BT11" s="19"/>
-      <c r="BU11" s="19"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="19"/>
-      <c r="BZ11" s="19"/>
-      <c r="CA11" s="19"/>
-      <c r="CB11" s="19"/>
-      <c r="CC11" s="19"/>
-      <c r="CD11" s="19"/>
-      <c r="CE11" s="19"/>
-      <c r="CF11" s="19"/>
-      <c r="CG11" s="19"/>
-      <c r="CH11" s="19"/>
-      <c r="CI11" s="19"/>
-      <c r="CJ11" s="19"/>
-      <c r="CK11" s="19"/>
-      <c r="CL11" s="19"/>
-      <c r="CM11" s="19"/>
-      <c r="CN11" s="19"/>
-      <c r="CO11" s="19"/>
-      <c r="CP11" s="19"/>
-      <c r="CQ11" s="19"/>
-      <c r="CR11" s="19"/>
-      <c r="CS11" s="19"/>
-      <c r="CT11" s="19"/>
-      <c r="CU11" s="19"/>
-      <c r="CV11" s="19"/>
-      <c r="CW11" s="19"/>
-      <c r="CX11" s="19"/>
-      <c r="CY11" s="19"/>
-      <c r="CZ11" s="19"/>
-      <c r="DA11" s="19"/>
-      <c r="DB11" s="19"/>
-      <c r="DC11" s="19"/>
-      <c r="DD11" s="19"/>
-      <c r="DE11" s="19"/>
-      <c r="DF11" s="19"/>
-      <c r="DG11" s="19"/>
-      <c r="DH11" s="19"/>
-      <c r="DI11" s="19"/>
-      <c r="DJ11" s="19"/>
-      <c r="DK11" s="19"/>
-      <c r="DL11" s="19"/>
-      <c r="DM11" s="19"/>
-      <c r="DN11" s="19"/>
-      <c r="DO11" s="19"/>
-      <c r="DP11" s="19"/>
-      <c r="DQ11" s="19"/>
-      <c r="DR11" s="19"/>
-      <c r="DS11" s="19"/>
-      <c r="DT11" s="19"/>
-      <c r="DU11" s="19"/>
+    <row r="11" ht="92.35" customHeight="1">
+      <c r="A11" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="N11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="U11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="V11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AA11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AB11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="AD11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AH11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AI11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="AN11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AO11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AP11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AQ11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AR11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AS11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AT11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AU11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AV11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="AX11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="AY11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AZ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BA11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BB11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BC11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BD11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BE11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BF11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BG11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BH11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BI11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BJ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BK11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BL11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BM11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BN11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BO11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BP11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BQ11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BR11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BS11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BT11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BU11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BV11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BW11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BX11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="BY11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BZ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CA11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CB11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CC11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CD11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CE11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CF11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CG11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CH11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CI11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CJ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CK11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CL11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CM11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CN11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CO11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CP11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CQ11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CR11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CS11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CT11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CU11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CV11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CW11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CX11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="CY11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CZ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DA11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DB11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DC11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DD11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DE11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DF11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DG11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DH11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DI11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DJ11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DK11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DL11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DM11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DN11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DO11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DP11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DQ11" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="DR11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DS11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DT11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DU11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DV11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DW11" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DX11" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="DY11" t="s" s="14">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
+    <row r="12" ht="32.35" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="16"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="16"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
-      <c r="BM12" s="16"/>
-      <c r="BN12" s="16"/>
-      <c r="BO12" s="16"/>
-      <c r="BP12" s="16"/>
-      <c r="BQ12" s="16"/>
-      <c r="BR12" s="16"/>
-      <c r="BS12" s="16"/>
-      <c r="BT12" s="16"/>
-      <c r="BU12" s="16"/>
-      <c r="BV12" s="16"/>
-      <c r="BW12" s="16"/>
-      <c r="BX12" s="16"/>
-      <c r="BY12" s="16"/>
-      <c r="BZ12" s="16"/>
-      <c r="CA12" s="16"/>
-      <c r="CB12" s="16"/>
-      <c r="CC12" s="16"/>
-      <c r="CD12" s="16"/>
-      <c r="CE12" s="16"/>
-      <c r="CF12" s="16"/>
-      <c r="CG12" s="16"/>
-      <c r="CH12" s="16"/>
-      <c r="CI12" s="16"/>
-      <c r="CJ12" s="16"/>
-      <c r="CK12" s="16"/>
-      <c r="CL12" s="16"/>
-      <c r="CM12" s="16"/>
-      <c r="CN12" s="16"/>
-      <c r="CO12" s="16"/>
-      <c r="CP12" s="16"/>
-      <c r="CQ12" s="16"/>
-      <c r="CR12" s="16"/>
-      <c r="CS12" s="16"/>
-      <c r="CT12" s="16"/>
-      <c r="CU12" s="16"/>
-      <c r="CV12" s="16"/>
-      <c r="CW12" s="16"/>
-      <c r="CX12" s="16"/>
-      <c r="CY12" s="16"/>
-      <c r="CZ12" s="16"/>
-      <c r="DA12" s="16"/>
-      <c r="DB12" s="16"/>
-      <c r="DC12" s="16"/>
-      <c r="DD12" s="16"/>
-      <c r="DE12" s="16"/>
-      <c r="DF12" s="16"/>
-      <c r="DG12" s="16"/>
-      <c r="DH12" s="16"/>
-      <c r="DI12" s="16"/>
-      <c r="DJ12" s="16"/>
-      <c r="DK12" s="16"/>
-      <c r="DL12" s="16"/>
-      <c r="DM12" s="16"/>
-      <c r="DN12" s="16"/>
-      <c r="DO12" s="16"/>
-      <c r="DP12" s="16"/>
-      <c r="DQ12" s="16"/>
-      <c r="DR12" s="16"/>
-      <c r="DS12" s="16"/>
-      <c r="DT12" s="16"/>
-      <c r="DU12" s="17"/>
+      <c r="B12" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="N12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="R12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="T12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="U12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="V12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="X12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="Z12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AB12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AC12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AD12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AF12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AH12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AI12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AJ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AL12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="AN12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AO12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AP12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AQ12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AR12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AS12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AT12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AU12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AV12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AW12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AX12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="AY12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="AZ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BB12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BC12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BD12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BE12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BF12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BG12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BH12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BI12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BJ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BK12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BL12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BM12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BN12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BO12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BP12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BQ12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BR12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BS12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BT12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BU12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BV12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BW12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BX12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="BY12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="BZ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CA12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CB12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CC12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CD12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CE12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CF12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CG12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CH12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CI12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CJ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CK12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CL12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CM12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CN12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CO12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CP12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CQ12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CR12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CS12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CT12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CU12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CV12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CW12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CX12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="CY12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="CZ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DA12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DB12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DC12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DD12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DE12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DF12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DG12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DH12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DI12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DJ12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DK12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DL12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DM12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DN12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DO12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DP12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DQ12" t="s" s="12">
+        <v>69</v>
+      </c>
+      <c r="DR12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DS12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DT12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DU12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DV12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DW12" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="DX12" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="DY12" t="s" s="12">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
+    <row r="13" ht="32.35" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="19"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="19"/>
-      <c r="BO13" s="19"/>
-      <c r="BP13" s="19"/>
-      <c r="BQ13" s="19"/>
-      <c r="BR13" s="19"/>
-      <c r="BS13" s="19"/>
-      <c r="BT13" s="19"/>
-      <c r="BU13" s="19"/>
-      <c r="BV13" s="19"/>
-      <c r="BW13" s="19"/>
-      <c r="BX13" s="19"/>
-      <c r="BY13" s="19"/>
-      <c r="BZ13" s="19"/>
-      <c r="CA13" s="19"/>
-      <c r="CB13" s="19"/>
-      <c r="CC13" s="19"/>
-      <c r="CD13" s="19"/>
-      <c r="CE13" s="19"/>
-      <c r="CF13" s="19"/>
-      <c r="CG13" s="19"/>
-      <c r="CH13" s="19"/>
-      <c r="CI13" s="19"/>
-      <c r="CJ13" s="19"/>
-      <c r="CK13" s="19"/>
-      <c r="CL13" s="19"/>
-      <c r="CM13" s="19"/>
-      <c r="CN13" s="19"/>
-      <c r="CO13" s="19"/>
-      <c r="CP13" s="19"/>
-      <c r="CQ13" s="19"/>
-      <c r="CR13" s="19"/>
-      <c r="CS13" s="19"/>
-      <c r="CT13" s="19"/>
-      <c r="CU13" s="19"/>
-      <c r="CV13" s="19"/>
-      <c r="CW13" s="19"/>
-      <c r="CX13" s="19"/>
-      <c r="CY13" s="19"/>
-      <c r="CZ13" s="19"/>
-      <c r="DA13" s="19"/>
-      <c r="DB13" s="19"/>
-      <c r="DC13" s="19"/>
-      <c r="DD13" s="19"/>
-      <c r="DE13" s="19"/>
-      <c r="DF13" s="19"/>
-      <c r="DG13" s="19"/>
-      <c r="DH13" s="19"/>
-      <c r="DI13" s="19"/>
-      <c r="DJ13" s="19"/>
-      <c r="DK13" s="19"/>
-      <c r="DL13" s="19"/>
-      <c r="DM13" s="19"/>
-      <c r="DN13" s="19"/>
-      <c r="DO13" s="19"/>
-      <c r="DP13" s="19"/>
-      <c r="DQ13" s="19"/>
-      <c r="DR13" s="19"/>
-      <c r="DS13" s="19"/>
-      <c r="DT13" s="19"/>
-      <c r="DU13" s="19"/>
+      <c r="B13" t="s" s="13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="N13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="R13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="T13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="V13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="X13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="Z13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AB13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AD13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AF13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AG13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AH13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AJ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AL13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AM13" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AO13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AP13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AQ13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AR13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AS13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AT13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AU13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AV13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AW13" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="AX13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="AY13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="AZ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BA13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BB13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BC13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BD13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BE13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BF13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BG13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BH13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BI13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BJ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BK13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BL13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BM13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BN13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BO13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BP13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BQ13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BR13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BS13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BT13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BU13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BV13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BW13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BX13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="BY13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="BZ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CA13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CB13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CC13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CD13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CE13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CF13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CG13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CH13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CI13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CJ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CK13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CL13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CM13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CN13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CO13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CP13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CQ13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CR13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CS13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CT13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CU13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CV13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CW13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CX13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="CY13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="CZ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DA13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DB13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DC13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DD13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DE13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DF13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DG13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DH13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DI13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DJ13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DK13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DL13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DM13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DN13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DO13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DP13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DQ13" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="DR13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DS13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DT13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DU13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DV13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DW13" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="DX13" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="DY13" t="s" s="14">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" s="10"/>
@@ -4298,7 +5961,7 @@
       <c r="AS14" s="16"/>
       <c r="AT14" s="16"/>
       <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
+      <c r="AV14" s="12"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
@@ -4375,134 +6038,142 @@
       <c r="DR14" s="16"/>
       <c r="DS14" s="16"/>
       <c r="DT14" s="16"/>
-      <c r="DU14" s="17"/>
+      <c r="DU14" s="16"/>
+      <c r="DV14" s="16"/>
+      <c r="DW14" s="16"/>
+      <c r="DX14" s="16"/>
+      <c r="DY14" s="17"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="19"/>
-      <c r="BP15" s="19"/>
-      <c r="BQ15" s="19"/>
-      <c r="BR15" s="19"/>
-      <c r="BS15" s="19"/>
-      <c r="BT15" s="19"/>
-      <c r="BU15" s="19"/>
-      <c r="BV15" s="19"/>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="19"/>
-      <c r="BY15" s="19"/>
-      <c r="BZ15" s="19"/>
-      <c r="CA15" s="19"/>
-      <c r="CB15" s="19"/>
-      <c r="CC15" s="19"/>
-      <c r="CD15" s="19"/>
-      <c r="CE15" s="19"/>
-      <c r="CF15" s="19"/>
-      <c r="CG15" s="19"/>
-      <c r="CH15" s="19"/>
-      <c r="CI15" s="19"/>
-      <c r="CJ15" s="19"/>
-      <c r="CK15" s="19"/>
-      <c r="CL15" s="19"/>
-      <c r="CM15" s="19"/>
-      <c r="CN15" s="19"/>
-      <c r="CO15" s="19"/>
-      <c r="CP15" s="19"/>
-      <c r="CQ15" s="19"/>
-      <c r="CR15" s="19"/>
-      <c r="CS15" s="19"/>
-      <c r="CT15" s="19"/>
-      <c r="CU15" s="19"/>
-      <c r="CV15" s="19"/>
-      <c r="CW15" s="19"/>
-      <c r="CX15" s="19"/>
-      <c r="CY15" s="19"/>
-      <c r="CZ15" s="19"/>
-      <c r="DA15" s="19"/>
-      <c r="DB15" s="19"/>
-      <c r="DC15" s="19"/>
-      <c r="DD15" s="19"/>
-      <c r="DE15" s="19"/>
-      <c r="DF15" s="19"/>
-      <c r="DG15" s="19"/>
-      <c r="DH15" s="19"/>
-      <c r="DI15" s="19"/>
-      <c r="DJ15" s="19"/>
-      <c r="DK15" s="19"/>
-      <c r="DL15" s="19"/>
-      <c r="DM15" s="19"/>
-      <c r="DN15" s="19"/>
-      <c r="DO15" s="19"/>
-      <c r="DP15" s="19"/>
-      <c r="DQ15" s="19"/>
-      <c r="DR15" s="19"/>
-      <c r="DS15" s="19"/>
-      <c r="DT15" s="19"/>
-      <c r="DU15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
+      <c r="CH15" s="20"/>
+      <c r="CI15" s="20"/>
+      <c r="CJ15" s="20"/>
+      <c r="CK15" s="20"/>
+      <c r="CL15" s="20"/>
+      <c r="CM15" s="20"/>
+      <c r="CN15" s="20"/>
+      <c r="CO15" s="20"/>
+      <c r="CP15" s="20"/>
+      <c r="CQ15" s="20"/>
+      <c r="CR15" s="20"/>
+      <c r="CS15" s="20"/>
+      <c r="CT15" s="20"/>
+      <c r="CU15" s="20"/>
+      <c r="CV15" s="20"/>
+      <c r="CW15" s="20"/>
+      <c r="CX15" s="20"/>
+      <c r="CY15" s="20"/>
+      <c r="CZ15" s="20"/>
+      <c r="DA15" s="20"/>
+      <c r="DB15" s="20"/>
+      <c r="DC15" s="20"/>
+      <c r="DD15" s="20"/>
+      <c r="DE15" s="20"/>
+      <c r="DF15" s="20"/>
+      <c r="DG15" s="20"/>
+      <c r="DH15" s="20"/>
+      <c r="DI15" s="20"/>
+      <c r="DJ15" s="20"/>
+      <c r="DK15" s="20"/>
+      <c r="DL15" s="20"/>
+      <c r="DM15" s="20"/>
+      <c r="DN15" s="20"/>
+      <c r="DO15" s="20"/>
+      <c r="DP15" s="20"/>
+      <c r="DQ15" s="20"/>
+      <c r="DR15" s="20"/>
+      <c r="DS15" s="20"/>
+      <c r="DT15" s="20"/>
+      <c r="DU15" s="20"/>
+      <c r="DV15" s="20"/>
+      <c r="DW15" s="20"/>
+      <c r="DX15" s="20"/>
+      <c r="DY15" s="20"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" s="10"/>
@@ -4629,134 +6300,142 @@
       <c r="DR16" s="16"/>
       <c r="DS16" s="16"/>
       <c r="DT16" s="16"/>
-      <c r="DU16" s="17"/>
+      <c r="DU16" s="16"/>
+      <c r="DV16" s="16"/>
+      <c r="DW16" s="16"/>
+      <c r="DX16" s="16"/>
+      <c r="DY16" s="17"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
-      <c r="BN17" s="19"/>
-      <c r="BO17" s="19"/>
-      <c r="BP17" s="19"/>
-      <c r="BQ17" s="19"/>
-      <c r="BR17" s="19"/>
-      <c r="BS17" s="19"/>
-      <c r="BT17" s="19"/>
-      <c r="BU17" s="19"/>
-      <c r="BV17" s="19"/>
-      <c r="BW17" s="19"/>
-      <c r="BX17" s="19"/>
-      <c r="BY17" s="19"/>
-      <c r="BZ17" s="19"/>
-      <c r="CA17" s="19"/>
-      <c r="CB17" s="19"/>
-      <c r="CC17" s="19"/>
-      <c r="CD17" s="19"/>
-      <c r="CE17" s="19"/>
-      <c r="CF17" s="19"/>
-      <c r="CG17" s="19"/>
-      <c r="CH17" s="19"/>
-      <c r="CI17" s="19"/>
-      <c r="CJ17" s="19"/>
-      <c r="CK17" s="19"/>
-      <c r="CL17" s="19"/>
-      <c r="CM17" s="19"/>
-      <c r="CN17" s="19"/>
-      <c r="CO17" s="19"/>
-      <c r="CP17" s="19"/>
-      <c r="CQ17" s="19"/>
-      <c r="CR17" s="19"/>
-      <c r="CS17" s="19"/>
-      <c r="CT17" s="19"/>
-      <c r="CU17" s="19"/>
-      <c r="CV17" s="19"/>
-      <c r="CW17" s="19"/>
-      <c r="CX17" s="19"/>
-      <c r="CY17" s="19"/>
-      <c r="CZ17" s="19"/>
-      <c r="DA17" s="19"/>
-      <c r="DB17" s="19"/>
-      <c r="DC17" s="19"/>
-      <c r="DD17" s="19"/>
-      <c r="DE17" s="19"/>
-      <c r="DF17" s="19"/>
-      <c r="DG17" s="19"/>
-      <c r="DH17" s="19"/>
-      <c r="DI17" s="19"/>
-      <c r="DJ17" s="19"/>
-      <c r="DK17" s="19"/>
-      <c r="DL17" s="19"/>
-      <c r="DM17" s="19"/>
-      <c r="DN17" s="19"/>
-      <c r="DO17" s="19"/>
-      <c r="DP17" s="19"/>
-      <c r="DQ17" s="19"/>
-      <c r="DR17" s="19"/>
-      <c r="DS17" s="19"/>
-      <c r="DT17" s="19"/>
-      <c r="DU17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
+      <c r="BZ17" s="20"/>
+      <c r="CA17" s="20"/>
+      <c r="CB17" s="20"/>
+      <c r="CC17" s="20"/>
+      <c r="CD17" s="20"/>
+      <c r="CE17" s="20"/>
+      <c r="CF17" s="20"/>
+      <c r="CG17" s="20"/>
+      <c r="CH17" s="20"/>
+      <c r="CI17" s="20"/>
+      <c r="CJ17" s="20"/>
+      <c r="CK17" s="20"/>
+      <c r="CL17" s="20"/>
+      <c r="CM17" s="20"/>
+      <c r="CN17" s="20"/>
+      <c r="CO17" s="20"/>
+      <c r="CP17" s="20"/>
+      <c r="CQ17" s="20"/>
+      <c r="CR17" s="20"/>
+      <c r="CS17" s="20"/>
+      <c r="CT17" s="20"/>
+      <c r="CU17" s="20"/>
+      <c r="CV17" s="20"/>
+      <c r="CW17" s="20"/>
+      <c r="CX17" s="20"/>
+      <c r="CY17" s="20"/>
+      <c r="CZ17" s="20"/>
+      <c r="DA17" s="20"/>
+      <c r="DB17" s="20"/>
+      <c r="DC17" s="20"/>
+      <c r="DD17" s="20"/>
+      <c r="DE17" s="20"/>
+      <c r="DF17" s="20"/>
+      <c r="DG17" s="20"/>
+      <c r="DH17" s="20"/>
+      <c r="DI17" s="20"/>
+      <c r="DJ17" s="20"/>
+      <c r="DK17" s="20"/>
+      <c r="DL17" s="20"/>
+      <c r="DM17" s="20"/>
+      <c r="DN17" s="20"/>
+      <c r="DO17" s="20"/>
+      <c r="DP17" s="20"/>
+      <c r="DQ17" s="20"/>
+      <c r="DR17" s="20"/>
+      <c r="DS17" s="20"/>
+      <c r="DT17" s="20"/>
+      <c r="DU17" s="20"/>
+      <c r="DV17" s="20"/>
+      <c r="DW17" s="20"/>
+      <c r="DX17" s="20"/>
+      <c r="DY17" s="20"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" s="10"/>
@@ -4883,134 +6562,142 @@
       <c r="DR18" s="16"/>
       <c r="DS18" s="16"/>
       <c r="DT18" s="16"/>
-      <c r="DU18" s="17"/>
+      <c r="DU18" s="16"/>
+      <c r="DV18" s="16"/>
+      <c r="DW18" s="16"/>
+      <c r="DX18" s="16"/>
+      <c r="DY18" s="17"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="19"/>
-      <c r="BF19" s="19"/>
-      <c r="BG19" s="19"/>
-      <c r="BH19" s="19"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="19"/>
-      <c r="BK19" s="19"/>
-      <c r="BL19" s="19"/>
-      <c r="BM19" s="19"/>
-      <c r="BN19" s="19"/>
-      <c r="BO19" s="19"/>
-      <c r="BP19" s="19"/>
-      <c r="BQ19" s="19"/>
-      <c r="BR19" s="19"/>
-      <c r="BS19" s="19"/>
-      <c r="BT19" s="19"/>
-      <c r="BU19" s="19"/>
-      <c r="BV19" s="19"/>
-      <c r="BW19" s="19"/>
-      <c r="BX19" s="19"/>
-      <c r="BY19" s="19"/>
-      <c r="BZ19" s="19"/>
-      <c r="CA19" s="19"/>
-      <c r="CB19" s="19"/>
-      <c r="CC19" s="19"/>
-      <c r="CD19" s="19"/>
-      <c r="CE19" s="19"/>
-      <c r="CF19" s="19"/>
-      <c r="CG19" s="19"/>
-      <c r="CH19" s="19"/>
-      <c r="CI19" s="19"/>
-      <c r="CJ19" s="19"/>
-      <c r="CK19" s="19"/>
-      <c r="CL19" s="19"/>
-      <c r="CM19" s="19"/>
-      <c r="CN19" s="19"/>
-      <c r="CO19" s="19"/>
-      <c r="CP19" s="19"/>
-      <c r="CQ19" s="19"/>
-      <c r="CR19" s="19"/>
-      <c r="CS19" s="19"/>
-      <c r="CT19" s="19"/>
-      <c r="CU19" s="19"/>
-      <c r="CV19" s="19"/>
-      <c r="CW19" s="19"/>
-      <c r="CX19" s="19"/>
-      <c r="CY19" s="19"/>
-      <c r="CZ19" s="19"/>
-      <c r="DA19" s="19"/>
-      <c r="DB19" s="19"/>
-      <c r="DC19" s="19"/>
-      <c r="DD19" s="19"/>
-      <c r="DE19" s="19"/>
-      <c r="DF19" s="19"/>
-      <c r="DG19" s="19"/>
-      <c r="DH19" s="19"/>
-      <c r="DI19" s="19"/>
-      <c r="DJ19" s="19"/>
-      <c r="DK19" s="19"/>
-      <c r="DL19" s="19"/>
-      <c r="DM19" s="19"/>
-      <c r="DN19" s="19"/>
-      <c r="DO19" s="19"/>
-      <c r="DP19" s="19"/>
-      <c r="DQ19" s="19"/>
-      <c r="DR19" s="19"/>
-      <c r="DS19" s="19"/>
-      <c r="DT19" s="19"/>
-      <c r="DU19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="20"/>
+      <c r="CE19" s="20"/>
+      <c r="CF19" s="20"/>
+      <c r="CG19" s="20"/>
+      <c r="CH19" s="20"/>
+      <c r="CI19" s="20"/>
+      <c r="CJ19" s="20"/>
+      <c r="CK19" s="20"/>
+      <c r="CL19" s="20"/>
+      <c r="CM19" s="20"/>
+      <c r="CN19" s="20"/>
+      <c r="CO19" s="20"/>
+      <c r="CP19" s="20"/>
+      <c r="CQ19" s="20"/>
+      <c r="CR19" s="20"/>
+      <c r="CS19" s="20"/>
+      <c r="CT19" s="20"/>
+      <c r="CU19" s="20"/>
+      <c r="CV19" s="20"/>
+      <c r="CW19" s="20"/>
+      <c r="CX19" s="20"/>
+      <c r="CY19" s="20"/>
+      <c r="CZ19" s="20"/>
+      <c r="DA19" s="20"/>
+      <c r="DB19" s="20"/>
+      <c r="DC19" s="20"/>
+      <c r="DD19" s="20"/>
+      <c r="DE19" s="20"/>
+      <c r="DF19" s="20"/>
+      <c r="DG19" s="20"/>
+      <c r="DH19" s="20"/>
+      <c r="DI19" s="20"/>
+      <c r="DJ19" s="20"/>
+      <c r="DK19" s="20"/>
+      <c r="DL19" s="20"/>
+      <c r="DM19" s="20"/>
+      <c r="DN19" s="20"/>
+      <c r="DO19" s="20"/>
+      <c r="DP19" s="20"/>
+      <c r="DQ19" s="20"/>
+      <c r="DR19" s="20"/>
+      <c r="DS19" s="20"/>
+      <c r="DT19" s="20"/>
+      <c r="DU19" s="20"/>
+      <c r="DV19" s="20"/>
+      <c r="DW19" s="20"/>
+      <c r="DX19" s="20"/>
+      <c r="DY19" s="20"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" s="10"/>
@@ -5137,134 +6824,142 @@
       <c r="DR20" s="16"/>
       <c r="DS20" s="16"/>
       <c r="DT20" s="16"/>
-      <c r="DU20" s="17"/>
+      <c r="DU20" s="16"/>
+      <c r="DV20" s="16"/>
+      <c r="DW20" s="16"/>
+      <c r="DX20" s="16"/>
+      <c r="DY20" s="17"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
-      <c r="BF21" s="19"/>
-      <c r="BG21" s="19"/>
-      <c r="BH21" s="19"/>
-      <c r="BI21" s="19"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="19"/>
-      <c r="BL21" s="19"/>
-      <c r="BM21" s="19"/>
-      <c r="BN21" s="19"/>
-      <c r="BO21" s="19"/>
-      <c r="BP21" s="19"/>
-      <c r="BQ21" s="19"/>
-      <c r="BR21" s="19"/>
-      <c r="BS21" s="19"/>
-      <c r="BT21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="BV21" s="19"/>
-      <c r="BW21" s="19"/>
-      <c r="BX21" s="19"/>
-      <c r="BY21" s="19"/>
-      <c r="BZ21" s="19"/>
-      <c r="CA21" s="19"/>
-      <c r="CB21" s="19"/>
-      <c r="CC21" s="19"/>
-      <c r="CD21" s="19"/>
-      <c r="CE21" s="19"/>
-      <c r="CF21" s="19"/>
-      <c r="CG21" s="19"/>
-      <c r="CH21" s="19"/>
-      <c r="CI21" s="19"/>
-      <c r="CJ21" s="19"/>
-      <c r="CK21" s="19"/>
-      <c r="CL21" s="19"/>
-      <c r="CM21" s="19"/>
-      <c r="CN21" s="19"/>
-      <c r="CO21" s="19"/>
-      <c r="CP21" s="19"/>
-      <c r="CQ21" s="19"/>
-      <c r="CR21" s="19"/>
-      <c r="CS21" s="19"/>
-      <c r="CT21" s="19"/>
-      <c r="CU21" s="19"/>
-      <c r="CV21" s="19"/>
-      <c r="CW21" s="19"/>
-      <c r="CX21" s="19"/>
-      <c r="CY21" s="19"/>
-      <c r="CZ21" s="19"/>
-      <c r="DA21" s="19"/>
-      <c r="DB21" s="19"/>
-      <c r="DC21" s="19"/>
-      <c r="DD21" s="19"/>
-      <c r="DE21" s="19"/>
-      <c r="DF21" s="19"/>
-      <c r="DG21" s="19"/>
-      <c r="DH21" s="19"/>
-      <c r="DI21" s="19"/>
-      <c r="DJ21" s="19"/>
-      <c r="DK21" s="19"/>
-      <c r="DL21" s="19"/>
-      <c r="DM21" s="19"/>
-      <c r="DN21" s="19"/>
-      <c r="DO21" s="19"/>
-      <c r="DP21" s="19"/>
-      <c r="DQ21" s="19"/>
-      <c r="DR21" s="19"/>
-      <c r="DS21" s="19"/>
-      <c r="DT21" s="19"/>
-      <c r="DU21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="20"/>
+      <c r="BR21" s="20"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="BV21" s="20"/>
+      <c r="BW21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
+      <c r="BZ21" s="20"/>
+      <c r="CA21" s="20"/>
+      <c r="CB21" s="20"/>
+      <c r="CC21" s="20"/>
+      <c r="CD21" s="20"/>
+      <c r="CE21" s="20"/>
+      <c r="CF21" s="20"/>
+      <c r="CG21" s="20"/>
+      <c r="CH21" s="20"/>
+      <c r="CI21" s="20"/>
+      <c r="CJ21" s="20"/>
+      <c r="CK21" s="20"/>
+      <c r="CL21" s="20"/>
+      <c r="CM21" s="20"/>
+      <c r="CN21" s="20"/>
+      <c r="CO21" s="20"/>
+      <c r="CP21" s="20"/>
+      <c r="CQ21" s="20"/>
+      <c r="CR21" s="20"/>
+      <c r="CS21" s="20"/>
+      <c r="CT21" s="20"/>
+      <c r="CU21" s="20"/>
+      <c r="CV21" s="20"/>
+      <c r="CW21" s="20"/>
+      <c r="CX21" s="20"/>
+      <c r="CY21" s="20"/>
+      <c r="CZ21" s="20"/>
+      <c r="DA21" s="20"/>
+      <c r="DB21" s="20"/>
+      <c r="DC21" s="20"/>
+      <c r="DD21" s="20"/>
+      <c r="DE21" s="20"/>
+      <c r="DF21" s="20"/>
+      <c r="DG21" s="20"/>
+      <c r="DH21" s="20"/>
+      <c r="DI21" s="20"/>
+      <c r="DJ21" s="20"/>
+      <c r="DK21" s="20"/>
+      <c r="DL21" s="20"/>
+      <c r="DM21" s="20"/>
+      <c r="DN21" s="20"/>
+      <c r="DO21" s="20"/>
+      <c r="DP21" s="20"/>
+      <c r="DQ21" s="20"/>
+      <c r="DR21" s="20"/>
+      <c r="DS21" s="20"/>
+      <c r="DT21" s="20"/>
+      <c r="DU21" s="20"/>
+      <c r="DV21" s="20"/>
+      <c r="DW21" s="20"/>
+      <c r="DX21" s="20"/>
+      <c r="DY21" s="20"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" s="10"/>
@@ -5391,138 +7086,151 @@
       <c r="DR22" s="16"/>
       <c r="DS22" s="16"/>
       <c r="DT22" s="16"/>
-      <c r="DU22" s="17"/>
+      <c r="DU22" s="16"/>
+      <c r="DV22" s="16"/>
+      <c r="DW22" s="16"/>
+      <c r="DX22" s="16"/>
+      <c r="DY22" s="17"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="19"/>
-      <c r="BE23" s="19"/>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="19"/>
-      <c r="BH23" s="19"/>
-      <c r="BI23" s="19"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19"/>
-      <c r="BL23" s="19"/>
-      <c r="BM23" s="19"/>
-      <c r="BN23" s="19"/>
-      <c r="BO23" s="19"/>
-      <c r="BP23" s="19"/>
-      <c r="BQ23" s="19"/>
-      <c r="BR23" s="19"/>
-      <c r="BS23" s="19"/>
-      <c r="BT23" s="19"/>
-      <c r="BU23" s="19"/>
-      <c r="BV23" s="19"/>
-      <c r="BW23" s="19"/>
-      <c r="BX23" s="19"/>
-      <c r="BY23" s="19"/>
-      <c r="BZ23" s="19"/>
-      <c r="CA23" s="19"/>
-      <c r="CB23" s="19"/>
-      <c r="CC23" s="19"/>
-      <c r="CD23" s="19"/>
-      <c r="CE23" s="19"/>
-      <c r="CF23" s="19"/>
-      <c r="CG23" s="19"/>
-      <c r="CH23" s="19"/>
-      <c r="CI23" s="19"/>
-      <c r="CJ23" s="19"/>
-      <c r="CK23" s="19"/>
-      <c r="CL23" s="19"/>
-      <c r="CM23" s="19"/>
-      <c r="CN23" s="19"/>
-      <c r="CO23" s="19"/>
-      <c r="CP23" s="19"/>
-      <c r="CQ23" s="19"/>
-      <c r="CR23" s="19"/>
-      <c r="CS23" s="19"/>
-      <c r="CT23" s="19"/>
-      <c r="CU23" s="19"/>
-      <c r="CV23" s="19"/>
-      <c r="CW23" s="19"/>
-      <c r="CX23" s="19"/>
-      <c r="CY23" s="19"/>
-      <c r="CZ23" s="19"/>
-      <c r="DA23" s="19"/>
-      <c r="DB23" s="19"/>
-      <c r="DC23" s="19"/>
-      <c r="DD23" s="19"/>
-      <c r="DE23" s="19"/>
-      <c r="DF23" s="19"/>
-      <c r="DG23" s="19"/>
-      <c r="DH23" s="19"/>
-      <c r="DI23" s="19"/>
-      <c r="DJ23" s="19"/>
-      <c r="DK23" s="19"/>
-      <c r="DL23" s="19"/>
-      <c r="DM23" s="19"/>
-      <c r="DN23" s="19"/>
-      <c r="DO23" s="19"/>
-      <c r="DP23" s="19"/>
-      <c r="DQ23" s="19"/>
-      <c r="DR23" s="19"/>
-      <c r="DS23" s="19"/>
-      <c r="DT23" s="19"/>
-      <c r="DU23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
+      <c r="CD23" s="20"/>
+      <c r="CE23" s="20"/>
+      <c r="CF23" s="20"/>
+      <c r="CG23" s="20"/>
+      <c r="CH23" s="20"/>
+      <c r="CI23" s="20"/>
+      <c r="CJ23" s="20"/>
+      <c r="CK23" s="20"/>
+      <c r="CL23" s="20"/>
+      <c r="CM23" s="20"/>
+      <c r="CN23" s="20"/>
+      <c r="CO23" s="20"/>
+      <c r="CP23" s="20"/>
+      <c r="CQ23" s="20"/>
+      <c r="CR23" s="20"/>
+      <c r="CS23" s="20"/>
+      <c r="CT23" s="20"/>
+      <c r="CU23" s="20"/>
+      <c r="CV23" s="20"/>
+      <c r="CW23" s="20"/>
+      <c r="CX23" s="20"/>
+      <c r="CY23" s="20"/>
+      <c r="CZ23" s="20"/>
+      <c r="DA23" s="20"/>
+      <c r="DB23" s="20"/>
+      <c r="DC23" s="20"/>
+      <c r="DD23" s="20"/>
+      <c r="DE23" s="20"/>
+      <c r="DF23" s="20"/>
+      <c r="DG23" s="20"/>
+      <c r="DH23" s="20"/>
+      <c r="DI23" s="20"/>
+      <c r="DJ23" s="20"/>
+      <c r="DK23" s="20"/>
+      <c r="DL23" s="20"/>
+      <c r="DM23" s="20"/>
+      <c r="DN23" s="20"/>
+      <c r="DO23" s="20"/>
+      <c r="DP23" s="20"/>
+      <c r="DQ23" s="20"/>
+      <c r="DR23" s="20"/>
+      <c r="DS23" s="20"/>
+      <c r="DT23" s="20"/>
+      <c r="DU23" s="20"/>
+      <c r="DV23" s="20"/>
+      <c r="DW23" s="20"/>
+      <c r="DX23" s="20"/>
+      <c r="DY23" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="A1:DU1"/>
+  <mergeCells count="230">
+    <mergeCell ref="A1:DY1"/>
+    <mergeCell ref="DD14:DE14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="DX2:DY2"/>
+    <mergeCell ref="DV2:DW2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="DT2:DU2"/>
     <mergeCell ref="DR2:DS2"/>
@@ -5531,112 +7239,219 @@
     <mergeCell ref="DL2:DM2"/>
     <mergeCell ref="DJ2:DK2"/>
     <mergeCell ref="DH2:DI2"/>
+    <mergeCell ref="DD10:DE10"/>
     <mergeCell ref="DF2:DG2"/>
+    <mergeCell ref="DB14:DC14"/>
     <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DB10:DC10"/>
     <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="CZ14:DA14"/>
     <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="CZ10:DA10"/>
     <mergeCell ref="DB2:DC2"/>
+    <mergeCell ref="CX14:CY14"/>
     <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="CX10:CY10"/>
     <mergeCell ref="CZ2:DA2"/>
+    <mergeCell ref="CV14:CW14"/>
     <mergeCell ref="CX6:CY6"/>
+    <mergeCell ref="CV10:CW10"/>
     <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CT14:CU14"/>
     <mergeCell ref="CV6:CW6"/>
+    <mergeCell ref="CT10:CU10"/>
     <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CR14:CS14"/>
     <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CR10:CS10"/>
     <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="CP14:CQ14"/>
     <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CP10:CQ10"/>
     <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CN14:CO14"/>
     <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CN10:CO10"/>
     <mergeCell ref="CP2:CQ2"/>
+    <mergeCell ref="CL14:CM14"/>
     <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CL10:CM10"/>
     <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CJ14:CK14"/>
     <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CJ10:CK10"/>
     <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CH14:CI14"/>
     <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CH10:CI10"/>
     <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CF14:CG14"/>
     <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CF10:CG10"/>
     <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CD14:CE14"/>
     <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CD10:CE10"/>
     <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CB14:CC14"/>
     <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CB10:CC10"/>
     <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="BZ14:CA14"/>
     <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BZ10:CA10"/>
     <mergeCell ref="CB2:CC2"/>
+    <mergeCell ref="BX14:BY14"/>
     <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="BX10:BY10"/>
     <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="BV14:BW14"/>
     <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BV10:BW10"/>
     <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BT14:BU14"/>
     <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BT10:BU10"/>
     <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BR14:BS14"/>
     <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BR10:BS10"/>
     <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BP14:BQ14"/>
     <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BP10:BQ10"/>
     <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="BN14:BO14"/>
     <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BN10:BO10"/>
     <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BL14:BM14"/>
     <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="BL10:BM10"/>
     <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BJ14:BK14"/>
     <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BJ10:BK10"/>
     <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BH14:BI14"/>
     <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BH10:BI10"/>
     <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BF14:BG14"/>
     <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF10:BG10"/>
     <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BD14:BE14"/>
     <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD10:BE10"/>
     <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BB14:BC14"/>
     <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB10:BC10"/>
     <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="AZ14:BA14"/>
     <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="AZ10:BA10"/>
     <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="AX14:AY14"/>
     <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX10:AY10"/>
     <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AV14:AW14"/>
     <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AV10:AW10"/>
     <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AT14:AU14"/>
     <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT10:AU10"/>
     <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AR14:AS14"/>
     <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AR10:AS10"/>
     <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AP14:AQ14"/>
     <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AP10:AQ10"/>
     <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL10:AM10"/>
     <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AJ14:AK14"/>
     <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AF14:AG14"/>
     <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AF10:AG10"/>
     <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AD14:AE14"/>
     <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AD10:AE10"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="Z14:AA14"/>
     <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="X14:Y14"/>
     <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="X10:Y10"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="V10:W10"/>
     <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="T14:U14"/>
     <mergeCell ref="V6:W6"/>
+    <mergeCell ref="T10:U10"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T2:U2"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
